--- a/Контрольные точки.xlsx
+++ b/Контрольные точки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Разработка VPN-сервиса\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{515C1294-40FF-4E00-BA6C-469900BF8D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11EBC8E-3CBB-41B5-B696-F6EE0FDD650D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BA2366F0-D66B-4904-9CEF-F52D1228913E}"/>
+    <workbookView xWindow="285" yWindow="2835" windowWidth="27630" windowHeight="11550" xr2:uid="{BA2366F0-D66B-4904-9CEF-F52D1228913E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44970</v>
+        <v>44977</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44977</v>
+        <v>44984</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="4" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44984</v>
+        <v>44991</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44998</v>
+        <v>45005</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45012</v>
+        <v>45019</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45019</v>
+        <v>45026</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45026</v>
+        <v>45033</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45040</v>
+        <v>45047</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -630,27 +630,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45047</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45054</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45061</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45068</v>
+        <v>45075</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45075</v>
+        <v>45082</v>
       </c>
     </row>
   </sheetData>

--- a/Контрольные точки.xlsx
+++ b/Контрольные точки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Разработка VPN-сервиса\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11EBC8E-3CBB-41B5-B696-F6EE0FDD650D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E137AED9-25B2-418F-A546-26D41BAEF871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="2835" windowWidth="27630" windowHeight="11550" xr2:uid="{BA2366F0-D66B-4904-9CEF-F52D1228913E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BA2366F0-D66B-4904-9CEF-F52D1228913E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="4" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44998</v>
+        <v>45012</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45005</v>
+        <v>45026</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45012</v>
+        <v>45040</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45019</v>
+        <v>45054</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45026</v>
+        <v>45068</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45033</v>
+        <v>45082</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45040</v>
+        <v>45096</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>22</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45047</v>
+        <v>45110</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>

--- a/Контрольные точки.xlsx
+++ b/Контрольные точки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Разработка VPN-сервиса\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Desktop\VPN_SERVICE\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E137AED9-25B2-418F-A546-26D41BAEF871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14955036-164A-4F62-82AD-6C7175DA5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BA2366F0-D66B-4904-9CEF-F52D1228913E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -97,18 +97,6 @@
   </si>
   <si>
     <t>Desktop app ready. Fully functional minimum valuable product ready.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting mobile app development. Learning Kotlin docs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlin docs completed. </t>
-  </si>
-  <si>
-    <t>Actual start of mobile app prototyping (by writing the code).</t>
-  </si>
-  <si>
-    <t>Android mobile app ready &amp; tested.</t>
   </si>
   <si>
     <t>Total project review started.</t>
@@ -480,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7CFC52-C549-4F44-BBAE-B2F029FBA09A}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,53 +594,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>45096</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>45110</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>45054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>45061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>45068</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>45075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>45082</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
